--- a/test_result_data/hasil_uji_3.xlsx
+++ b/test_result_data/hasil_uji_3.xlsx
@@ -528,21 +528,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.         0.83333333]</t>
+          <t>[0.   0.85]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.         0.88235294]</t>
+          <t>[0. 1.]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.         0.85714286]</t>
+          <t>[0.         0.91891892]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -556,21 +556,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.23076923 0.87234043]</t>
+          <t>[0.44444444 0.90196078]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.33333333 0.80392157]</t>
+          <t>[0.44444444 0.90196078]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.27272727 0.83673469]</t>
+          <t>[0.44444444 0.90196078]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -584,21 +584,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.33333333 0.88235294]</t>
+          <t>[0.5        0.86206897]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.33333333 0.88235294]</t>
+          <t>[0.11111111 0.98039216]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.33333333 0.88235294]</t>
+          <t>[0.18181818 0.91743119]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_3.xlsx
+++ b/test_result_data/hasil_uji_3.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Presisi</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -470,20 +470,14 @@
           <t>Naive Bayes</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.   0.85]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.         0.91891892]</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9189189189189189</v>
       </c>
       <c r="F2" t="n">
         <v>0.85</v>
@@ -498,20 +492,14 @@
           <t>Support Vector Machine</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.   0.85]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.         0.91891892]</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9189189189189189</v>
       </c>
       <c r="F3" t="n">
         <v>0.85</v>
@@ -526,23 +514,17 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.   0.85]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0.         0.91891892]</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8571428571428571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -554,23 +536,17 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.44444444 0.90196078]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.44444444 0.90196078]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0.44444444 0.90196078]</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8247422680412372</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -582,23 +558,17 @@
           <t>Random Forest</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.5        0.86206897]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[0.11111111 0.98039216]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[0.18181818 0.91743119]</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0.8909090909090909</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9607843137254902</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9245283018867925</v>
       </c>
       <c r="F6" t="n">
-        <v>0.85</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_3.xlsx
+++ b/test_result_data/hasil_uji_3.xlsx
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8909090909090909</v>
+        <v>0.88</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9607843137254902</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9245283018867925</v>
+        <v>0.8712871287128714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
     </row>
   </sheetData>
